--- a/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="225" yWindow="540" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3594,10 +3594,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.7.2\\SE\\Nform_4.7.2_Setup.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Expand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3744,6 +3740,10 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4743,13 +4743,13 @@
         <v>753</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>789</v>
+        <v>827</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="16"/>
@@ -4774,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F3" s="16">
         <v>15</v>
@@ -4803,13 +4803,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>2</v>
@@ -4834,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F5" s="16">
         <v>3</v>
@@ -4863,13 +4863,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>2</v>
@@ -4894,10 +4894,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F7" s="16">
         <v>3</v>
@@ -4921,10 +4921,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>796</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>797</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>659</v>
@@ -4952,13 +4952,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>2</v>
@@ -4982,7 +4982,7 @@
         <v>787</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>661</v>
@@ -5008,13 +5008,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>2</v>
@@ -5040,13 +5040,13 @@
         <v>787</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>663</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="4"/>
@@ -5066,13 +5066,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>2</v>
@@ -5095,10 +5095,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -5125,10 +5125,10 @@
         <v>787</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>2</v>
@@ -5154,10 +5154,10 @@
         <v>787</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>801</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>802</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>2</v>
@@ -5180,10 +5180,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F17" s="16">
         <v>70</v>
@@ -5207,16 +5207,16 @@
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>667</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="4"/>
@@ -5238,13 +5238,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>797</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>2</v>
@@ -5267,10 +5267,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F20" s="16">
         <v>5</v>
@@ -5294,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="16"/>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>2</v>
@@ -5345,10 +5345,10 @@
         <v>787</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>2</v>
@@ -5372,16 +5372,16 @@
         <v>787</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>809</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>810</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5401,16 +5401,16 @@
         <v>787</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5430,10 +5430,10 @@
         <v>787</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>2</v>
@@ -5454,10 +5454,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F27" s="16">
         <v>3</v>
@@ -5482,10 +5482,10 @@
         <v>787</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>2</v>
@@ -5512,7 +5512,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>2</v>
@@ -5533,7 +5533,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="16"/>
@@ -5560,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>2</v>
@@ -5611,10 +5611,10 @@
         <v>787</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>815</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>816</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>2</v>
@@ -5641,7 +5641,7 @@
         <v>187</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>2</v>
@@ -5665,7 +5665,7 @@
         <v>787</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>190</v>
@@ -5674,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5694,10 +5694,10 @@
         <v>787</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>2</v>
@@ -5721,10 +5721,10 @@
         <v>787</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>2</v>
@@ -5745,10 +5745,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>794</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>795</v>
       </c>
       <c r="F38" s="16">
         <v>5</v>
@@ -5776,7 +5776,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>2</v>
@@ -5854,10 +5854,10 @@
         <v>787</v>
       </c>
       <c r="E42" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>822</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>823</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>2</v>
@@ -5878,10 +5878,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>824</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>825</v>
       </c>
       <c r="F43" s="16">
         <v>3</v>
@@ -5909,7 +5909,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>2</v>
@@ -5936,7 +5936,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>2</v>
@@ -5957,10 +5957,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F46" s="16">
         <v>5</v>
@@ -16155,7 +16155,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -17304,7 +17304,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -18279,7 +18279,7 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ADP3" t="s">
         <v>5</v>
@@ -18390,7 +18390,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -18402,7 +18402,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -26261,19 +26261,19 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
       </c>
       <c r="CH7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CI7" t="s">
         <v>7</v>
       </c>
       <c r="CO7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CY7" t="s">
         <v>8</v>
@@ -26282,7 +26282,7 @@
         <v>8</v>
       </c>
       <c r="DF7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="DG7" t="s">
         <v>8</v>
@@ -26378,7 +26378,7 @@
         <v>8</v>
       </c>
       <c r="FX7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="GA7" t="s">
         <v>8</v>
@@ -26453,7 +26453,7 @@
         <v>6</v>
       </c>
       <c r="IQ7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="IS7" t="s">
         <v>8</v>
@@ -26606,7 +26606,7 @@
         <v>8</v>
       </c>
       <c r="LI7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="LJ7" t="s">
         <v>8</v>
@@ -26621,7 +26621,7 @@
         <v>8</v>
       </c>
       <c r="LV7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="LZ7" t="s">
         <v>6</v>
@@ -26636,7 +26636,7 @@
         <v>8</v>
       </c>
       <c r="MH7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="MI7" t="s">
         <v>8</v>
@@ -26687,7 +26687,7 @@
         <v>8</v>
       </c>
       <c r="NL7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="NR7" t="s">
         <v>8</v>
@@ -26753,7 +26753,7 @@
         <v>8</v>
       </c>
       <c r="PQ7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="PR7" t="s">
         <v>8</v>
@@ -26804,7 +26804,7 @@
         <v>8</v>
       </c>
       <c r="RD7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="RT7" t="s">
         <v>8</v>
@@ -26876,7 +26876,7 @@
         <v>8</v>
       </c>
       <c r="TF7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="TL7" t="s">
         <v>8</v>
@@ -27077,16 +27077,16 @@
         <v>6</v>
       </c>
       <c r="YZ7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZA7" t="s">
         <v>8</v>
       </c>
       <c r="ZG7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZH7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZI7" t="s">
         <v>8</v>
@@ -27119,7 +27119,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -27131,7 +27131,7 @@
         <v>6</v>
       </c>
       <c r="AAK7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AAL7" t="s">
         <v>6</v>
@@ -27176,7 +27176,7 @@
         <v>8</v>
       </c>
       <c r="ACI7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ACL7" t="s">
         <v>6</v>
@@ -27188,13 +27188,13 @@
         <v>6</v>
       </c>
       <c r="ACP7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ACT7" t="s">
         <v>8</v>
       </c>
       <c r="ADK7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ADL7" t="s">
         <v>6</v>
@@ -27209,7 +27209,7 @@
         <v>7</v>
       </c>
       <c r="ADP7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AEC7" t="s">
         <v>6</v>
@@ -27260,7 +27260,7 @@
         <v>8</v>
       </c>
       <c r="AFY7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AGK7" t="s">
         <v>8</v>
@@ -27293,13 +27293,13 @@
         <v>8</v>
       </c>
       <c r="AHW7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AID7" t="s">
         <v>8</v>
       </c>
       <c r="AIP7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AIX7" t="s">
         <v>8</v>
@@ -27308,13 +27308,13 @@
         <v>8</v>
       </c>
       <c r="AJH7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AJQ7" t="s">
         <v>8</v>
       </c>
       <c r="AJR7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AJS7" t="s">
         <v>8</v>
@@ -27370,26 +27370,26 @@
     </row>
     <row r="8" spans="1:1014">
       <c r="AS8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="CH8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="CI8" t="s">
         <v>8</v>
       </c>
       <c r="CO8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="DF8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="FI8" t="s">
+        <v>790</v>
+      </c>
+      <c r="FX8" t="s">
         <v>791</v>
       </c>
-      <c r="FX8" t="s">
-        <v>792</v>
-      </c>
       <c r="IJ8" t="s">
         <v>7</v>
       </c>
@@ -27397,70 +27397,70 @@
         <v>7</v>
       </c>
       <c r="IQ8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="LI8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="LV8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="LZ8" t="s">
         <v>7</v>
       </c>
       <c r="MG8" t="s">
+        <v>790</v>
+      </c>
+      <c r="MH8" t="s">
         <v>791</v>
       </c>
-      <c r="MH8" t="s">
-        <v>792</v>
-      </c>
       <c r="NL8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="PQ8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="PV8" t="s">
+        <v>790</v>
+      </c>
+      <c r="QS8" t="s">
+        <v>790</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="RD8" t="s">
         <v>791</v>
       </c>
-      <c r="QS8" t="s">
+      <c r="TF8" t="s">
         <v>791</v>
       </c>
-      <c r="RB8" t="s">
-        <v>8</v>
-      </c>
-      <c r="RD8" t="s">
-        <v>792</v>
-      </c>
-      <c r="TF8" t="s">
-        <v>792</v>
-      </c>
       <c r="YY8" t="s">
         <v>7</v>
       </c>
       <c r="YZ8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ZG8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ZH8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ZW8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AAJ8" t="s">
         <v>7</v>
       </c>
       <c r="AAK8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AAL8" t="s">
         <v>7</v>
       </c>
       <c r="ACI8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ACL8" t="s">
         <v>7</v>
@@ -27472,10 +27472,10 @@
         <v>7</v>
       </c>
       <c r="ACP8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ADK8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ADL8" t="s">
         <v>7</v>
@@ -27484,7 +27484,7 @@
         <v>8</v>
       </c>
       <c r="ADP8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AEC8" t="s">
         <v>7</v>
@@ -27499,28 +27499,28 @@
         <v>8</v>
       </c>
       <c r="AFY8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AHW8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AIP8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AJH8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AJR8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" t="s">
+        <v>790</v>
+      </c>
+      <c r="FI9" t="s">
         <v>791</v>
       </c>
-      <c r="FI9" t="s">
-        <v>792</v>
-      </c>
       <c r="IJ9" t="s">
         <v>8</v>
       </c>
@@ -27531,16 +27531,16 @@
         <v>8</v>
       </c>
       <c r="MG9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="PV9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="QS9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="RB9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="YY9" t="s">
         <v>8</v>
@@ -27564,7 +27564,7 @@
         <v>8</v>
       </c>
       <c r="ADO9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AEC9" t="s">
         <v>8</v>
@@ -27573,27 +27573,27 @@
         <v>8</v>
       </c>
       <c r="AEZ9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AFD9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:1014">
       <c r="CI10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="RB10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="ADO10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AEZ10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AFD10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
@@ -3742,7 +3742,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
+    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7214" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="830">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3646,10 +3646,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>;T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Uncheck</t>
   </si>
   <si>
@@ -3742,7 +3738,19 @@
     <t>C</t>
   </si>
   <si>
-    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4676,10 +4684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4857,7 +4865,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="7">
-        <v>41045</v>
+        <v>41080</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4914,9 +4922,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>826</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4943,11 +4951,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4973,8 +4979,12 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5000,10 +5010,8 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5030,7 +5038,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5059,7 +5067,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5088,7 +5096,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5115,7 +5123,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5144,14 +5152,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>800</v>
@@ -5172,10 +5180,10 @@
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5201,13 +5209,13 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>796</v>
@@ -5216,7 +5224,7 @@
         <v>667</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="4"/>
@@ -5228,11 +5236,9 @@
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5244,7 +5250,7 @@
         <v>796</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>2</v>
@@ -5260,9 +5266,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5287,14 +5295,14 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="16"/>
@@ -5309,8 +5317,10 @@
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>2</v>
@@ -5345,7 +5355,7 @@
         <v>787</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>797</v>
@@ -5372,16 +5382,16 @@
         <v>787</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>808</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>809</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5401,16 +5411,16 @@
         <v>787</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5430,7 +5440,7 @@
         <v>787</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>797</v>
@@ -5482,10 +5492,10 @@
         <v>787</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>2</v>
@@ -5533,7 +5543,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="16"/>
@@ -5560,7 +5570,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>2</v>
@@ -5611,10 +5621,10 @@
         <v>787</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>814</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>815</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>2</v>
@@ -5641,7 +5651,7 @@
         <v>187</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>2</v>
@@ -5665,7 +5675,7 @@
         <v>787</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>190</v>
@@ -5674,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5694,7 +5704,7 @@
         <v>787</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>801</v>
@@ -5721,10 +5731,10 @@
         <v>787</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>2</v>
@@ -5776,7 +5786,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>2</v>
@@ -5854,10 +5864,10 @@
         <v>787</v>
       </c>
       <c r="E42" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>821</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>822</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>2</v>
@@ -5878,10 +5888,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>823</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>824</v>
       </c>
       <c r="F43" s="16">
         <v>3</v>
@@ -5909,7 +5919,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>2</v>
@@ -5936,7 +5946,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>2</v>
@@ -5957,10 +5967,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F46" s="16">
         <v>5</v>
@@ -6026,8 +6036,12 @@
       <c r="N49" s="14"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="55" spans="1:15">
-      <c r="B55" t="s">
+    <row r="50" spans="1:15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" t="s">
         <v>788</v>
       </c>
     </row>

--- a/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST932_InstallNformFullPackage.xlsx
@@ -3742,15 +3742,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NformInstaller$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4687,7 +4687,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4751,7 +4751,7 @@
         <v>753</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4788,7 +4788,7 @@
         <v>794</v>
       </c>
       <c r="F3" s="16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -4848,7 +4848,7 @@
         <v>794</v>
       </c>
       <c r="F5" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -4908,7 +4908,7 @@
         <v>794</v>
       </c>
       <c r="F7" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -5159,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>800</v>
@@ -5215,7 +5215,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>796</v>
